--- a/tofi-adm/doc/structure DB TOFI_Admin version 1.xlsx
+++ b/tofi-adm/doc/structure DB TOFI_Admin version 1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Проекты\ТОФИ 12\Структура базы данных ТОФИ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jc-projects\backend-jc\tofi-adm\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -446,7 +446,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -512,12 +512,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -527,6 +553,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1416,10 +1444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D5:J40"/>
+  <dimension ref="D5:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,7 +1621,7 @@
       <c r="D32" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -1604,8 +1632,8 @@
       <c r="D33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="2" t="s">
-        <v>15</v>
+      <c r="F33" s="10" t="s">
+        <v>6</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>6</v>
@@ -1616,7 +1644,7 @@
         <v>3</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="4:8" x14ac:dyDescent="0.25">
@@ -1624,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1632,26 +1660,31 @@
         <v>7</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F37" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F38" s="2" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="4:8" x14ac:dyDescent="0.25">
       <c r="F39" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="F40" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F40" s="3" t="s">
+    <row r="41" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" s="3" t="s">
         <v>7</v>
       </c>
     </row>
